--- a/Liberian population estimates.xlsx
+++ b/Liberian population estimates.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\OneDrive\Documents\EAGER Project\Simulator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eugen\OneDrive\Documents\EAGER Project\Simulator\Falsification_Simulation_Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8E328E-701F-475A-AB17-2C142CFA391F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76ED7ED1-3B37-4224-8938-102089F8546A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D4D34455-C603-4D20-AD5D-043F5F7561A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D4D34455-C603-4D20-AD5D-043F5F7561A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Base model estimates" sheetId="1" r:id="rId1"/>
     <sheet name="Distance Matrix" sheetId="4" r:id="rId2"/>
     <sheet name="Prefs Generator" sheetId="2" r:id="rId3"/>
     <sheet name="LT Generator" sheetId="3" r:id="rId4"/>
@@ -35,8 +35,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={44CAB754-505F-4DE3-A39C-777086DDE5CC}</author>
+  </authors>
+  <commentList>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{44CAB754-505F-4DE3-A39C-777086DDE5CC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    for uniform distribution ranges</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="68">
   <si>
     <t>Bomi</t>
   </si>
@@ -173,9 +191,6 @@
     <t>Greenville</t>
   </si>
   <si>
-    <t>packages/day of amoxy</t>
-  </si>
-  <si>
     <t>mean demand/day/Rx</t>
   </si>
   <si>
@@ -220,6 +235,30 @@
   <si>
     <t>County</t>
   </si>
+  <si>
+    <t>2010 pop'n estimate</t>
+  </si>
+  <si>
+    <t>2019 pop'n estimate</t>
+  </si>
+  <si>
+    <t>2000 pop'n estimate</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Est'd # of pharmacies</t>
+  </si>
+  <si>
+    <t>packages/day of beta-lactams</t>
+  </si>
+  <si>
+    <t>r (Poisson)</t>
+  </si>
+  <si>
+    <t>R (30 days)</t>
+  </si>
 </sst>
 </file>
 
@@ -228,7 +267,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +298,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,7 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -354,6 +402,8 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -438,7 +488,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:f>'Base model estimates'!$A$2:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -491,7 +541,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$2:$L$16</c:f>
+              <c:f>'Base model estimates'!$L$2:$L$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1268,13 +1318,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>548640</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>822960</xdr:rowOff>
@@ -1303,6 +1353,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="eugene wickett" id="{F291003F-6511-4AFB-A987-AFEB44A40B63}" userId="0e0457123075a4be" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1600,53 +1656,89 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="P1" dT="2020-03-31T00:35:52.48" personId="{F291003F-6511-4AFB-A987-AFEB44A40B63}" id="{44CAB754-505F-4DE3-A39C-777086DDE5CC}">
+    <text>for uniform distribution ranges</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C325CCE-B60E-4C28-AFB3-1F30DF0FDF1E}">
-  <dimension ref="A1:W18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C325CCE-B60E-4C28-AFB3-1F30DF0FDF1E}">
+  <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
       <c r="G1" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="H1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" t="s">
+        <v>64</v>
       </c>
       <c r="K1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="9"/>
+      <c r="P1" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" s="8">
+      <c r="X1" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1684,39 +1776,47 @@
         <f>K2/I2</f>
         <v>38.164666666666669</v>
       </c>
-      <c r="M2" s="11">
-        <f>L2-O2</f>
+      <c r="M2">
+        <f>L2*G2+1.645*SQRT(G2*L2)</f>
+        <v>90.701148953961564</v>
+      </c>
+      <c r="N2">
+        <f>30*L2</f>
+        <v>1144.94</v>
+      </c>
+      <c r="P2" s="11">
+        <f>L2-R2</f>
         <v>3.164666666666669</v>
       </c>
-      <c r="N2" s="11">
-        <f>L2+O2</f>
+      <c r="Q2" s="11">
+        <f>L2+R2</f>
         <v>73.164666666666676</v>
       </c>
-      <c r="O2">
+      <c r="R2">
         <v>35</v>
       </c>
-      <c r="P2">
-        <f>((N2-M2)^2)/12</f>
+      <c r="S2">
+        <f>((Q2-P2)^2)/12</f>
         <v>408.33333333333331</v>
       </c>
-      <c r="Q2" s="10">
-        <f>SQRT(P2)/AVERAGE(M2:N2)</f>
+      <c r="T2" s="10">
+        <f>SQRT(S2)/AVERAGE(P2:Q2)</f>
         <v>0.52947559055418358</v>
       </c>
-      <c r="R2" s="13">
+      <c r="U2" s="13">
         <f>ROUND(G2*L2*1.2,0)</f>
         <v>92</v>
       </c>
-      <c r="S2" s="13"/>
-      <c r="T2">
-        <v>2</v>
-      </c>
+      <c r="V2" s="13"/>
       <c r="W2">
+        <v>2</v>
+      </c>
+      <c r="Z2">
         <f>MIN(L2:L16)</f>
         <v>37.832999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1757,39 +1857,47 @@
         <f t="shared" ref="L3:L16" si="2">K3/I3</f>
         <v>45.39</v>
       </c>
-      <c r="M3" s="11">
-        <f t="shared" ref="M3:M16" si="3">L3-O3</f>
+      <c r="M3">
+        <f t="shared" ref="M3:M17" si="3">L3*G3+1.645*SQRT(G3*L3)</f>
+        <v>106.45331967070155</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N17" si="4">30*L3</f>
+        <v>1361.7</v>
+      </c>
+      <c r="P3" s="11">
+        <f t="shared" ref="P3:P16" si="5">L3-R3</f>
         <v>5.3900000000000006</v>
       </c>
-      <c r="N3" s="11">
-        <f t="shared" ref="N3:N16" si="4">L3+O3</f>
+      <c r="Q3" s="11">
+        <f t="shared" ref="Q3:Q16" si="6">L3+R3</f>
         <v>85.39</v>
       </c>
-      <c r="O3">
+      <c r="R3">
         <v>40</v>
       </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P16" si="5">((N3-M3)^2)/12</f>
+      <c r="S3">
+        <f t="shared" ref="S3:S16" si="7">((Q3-P3)^2)/12</f>
         <v>533.33333333333337</v>
       </c>
-      <c r="Q3" s="10">
-        <f t="shared" ref="Q3:Q16" si="6">SQRT(P3)/AVERAGE(M3:N3)</f>
+      <c r="T3" s="10">
+        <f t="shared" ref="T3:T16" si="8">SQRT(S3)/AVERAGE(P3:Q3)</f>
         <v>0.50879071970885725</v>
       </c>
-      <c r="R3" s="13">
-        <f t="shared" ref="R3:R16" si="7">ROUND(G3*L3*1.2,0)</f>
+      <c r="U3" s="13">
+        <f t="shared" ref="U3:U17" si="9">ROUND(G3*L3*1.2,0)</f>
         <v>109</v>
       </c>
-      <c r="S3" s="13"/>
-      <c r="T3">
-        <v>4</v>
-      </c>
+      <c r="V3" s="13"/>
       <c r="W3">
+        <v>4</v>
+      </c>
+      <c r="Z3">
         <f>MAX(L2:L16)</f>
         <v>48.665500000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1816,7 +1924,7 @@
         <v>113499</v>
       </c>
       <c r="I4" s="6">
-        <f t="shared" ref="I4:I16" si="8">ROUND(H4/$J$3,0)</f>
+        <f t="shared" ref="I4:I16" si="10">ROUND(H4/$J$3,0)</f>
         <v>3</v>
       </c>
       <c r="K4">
@@ -1827,35 +1935,43 @@
         <f t="shared" si="2"/>
         <v>37.832999999999998</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4">
         <f t="shared" si="3"/>
+        <v>89.975230854591729</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="4"/>
+        <v>1134.99</v>
+      </c>
+      <c r="P4" s="11">
+        <f t="shared" si="5"/>
         <v>4.8329999999999984</v>
       </c>
-      <c r="N4" s="11">
-        <f t="shared" si="4"/>
+      <c r="Q4" s="11">
+        <f t="shared" si="6"/>
         <v>70.832999999999998</v>
       </c>
-      <c r="O4">
+      <c r="R4">
         <v>33</v>
       </c>
-      <c r="P4">
-        <f t="shared" si="5"/>
+      <c r="S4">
+        <f t="shared" si="7"/>
         <v>363</v>
       </c>
-      <c r="Q4" s="10">
-        <f t="shared" si="6"/>
+      <c r="T4" s="10">
+        <f t="shared" si="8"/>
         <v>0.50359630172753023</v>
       </c>
-      <c r="R4" s="13">
-        <f t="shared" si="7"/>
+      <c r="U4" s="13">
+        <f t="shared" si="9"/>
         <v>91</v>
       </c>
-      <c r="S4" s="13"/>
-      <c r="T4">
+      <c r="V4" s="13"/>
+      <c r="W4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1882,7 +1998,7 @@
         <v>301746</v>
       </c>
       <c r="I5" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="K5">
@@ -1893,35 +2009,43 @@
         <f t="shared" si="2"/>
         <v>43.106571428571428</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5">
         <f t="shared" si="3"/>
+        <v>101.48713774715117</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="4"/>
+        <v>1293.1971428571428</v>
+      </c>
+      <c r="P5" s="11">
+        <f t="shared" si="5"/>
         <v>5.1065714285714279</v>
       </c>
-      <c r="N5" s="11">
-        <f t="shared" si="4"/>
+      <c r="Q5" s="11">
+        <f t="shared" si="6"/>
         <v>81.106571428571428</v>
       </c>
-      <c r="O5">
+      <c r="R5">
         <v>38</v>
       </c>
-      <c r="P5">
-        <f t="shared" si="5"/>
+      <c r="S5">
+        <f t="shared" si="7"/>
         <v>481.33333333333331</v>
       </c>
-      <c r="Q5" s="10">
-        <f t="shared" si="6"/>
+      <c r="T5" s="10">
+        <f t="shared" si="8"/>
         <v>0.50895511988374476</v>
       </c>
-      <c r="R5" s="13">
-        <f t="shared" si="7"/>
+      <c r="U5" s="13">
+        <f t="shared" si="9"/>
         <v>103</v>
       </c>
-      <c r="S5" s="13"/>
-      <c r="T5">
+      <c r="V5" s="13"/>
+      <c r="W5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1948,7 +2072,7 @@
         <v>172963</v>
       </c>
       <c r="I6" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K6">
@@ -1959,35 +2083,43 @@
         <f t="shared" si="2"/>
         <v>43.240749999999998</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6">
         <f t="shared" si="3"/>
+        <v>101.77924823421735</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>1297.2224999999999</v>
+      </c>
+      <c r="P6" s="11">
+        <f t="shared" si="5"/>
         <v>5.2407499999999985</v>
       </c>
-      <c r="N6" s="11">
-        <f t="shared" si="4"/>
+      <c r="Q6" s="11">
+        <f t="shared" si="6"/>
         <v>81.240749999999991</v>
       </c>
-      <c r="O6">
+      <c r="R6">
         <v>38</v>
       </c>
-      <c r="P6">
-        <f t="shared" si="5"/>
+      <c r="S6">
+        <f t="shared" si="7"/>
         <v>481.33333333333331</v>
       </c>
-      <c r="Q6" s="10">
-        <f t="shared" si="6"/>
+      <c r="T6" s="10">
+        <f t="shared" si="8"/>
         <v>0.50737580243649294</v>
       </c>
-      <c r="R6" s="13">
-        <f t="shared" si="7"/>
+      <c r="U6" s="13">
+        <f t="shared" si="9"/>
         <v>104</v>
       </c>
-      <c r="S6" s="13"/>
-      <c r="T6">
+      <c r="V6" s="13"/>
+      <c r="W6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -2014,7 +2146,7 @@
         <v>170488</v>
       </c>
       <c r="I7" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K7">
@@ -2025,35 +2157,43 @@
         <f t="shared" si="2"/>
         <v>42.622</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7">
         <f t="shared" si="3"/>
+        <v>191.96693829312798</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>1278.6600000000001</v>
+      </c>
+      <c r="P7" s="11">
+        <f t="shared" si="5"/>
         <v>5.6219999999999999</v>
       </c>
-      <c r="N7" s="11">
-        <f t="shared" si="4"/>
+      <c r="Q7" s="11">
+        <f t="shared" si="6"/>
         <v>79.622</v>
       </c>
-      <c r="O7">
+      <c r="R7">
         <v>37</v>
       </c>
-      <c r="P7">
-        <f t="shared" si="5"/>
+      <c r="S7">
+        <f t="shared" si="7"/>
         <v>456.33333333333331</v>
       </c>
-      <c r="Q7" s="10">
-        <f t="shared" si="6"/>
+      <c r="T7" s="10">
+        <f t="shared" si="8"/>
         <v>0.50119562573356846</v>
       </c>
-      <c r="R7" s="13">
-        <f t="shared" si="7"/>
+      <c r="U7" s="13">
+        <f t="shared" si="9"/>
         <v>205</v>
       </c>
-      <c r="S7" s="13"/>
-      <c r="T7">
+      <c r="V7" s="13"/>
+      <c r="W7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -2080,7 +2220,7 @@
         <v>78825</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="K8">
@@ -2091,35 +2231,43 @@
         <f t="shared" si="2"/>
         <v>39.412500000000001</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8">
         <f t="shared" si="3"/>
+        <v>303.21072221458331</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>1182.375</v>
+      </c>
+      <c r="P8" s="11">
+        <f t="shared" si="5"/>
         <v>5.4125000000000014</v>
       </c>
-      <c r="N8" s="11">
-        <f t="shared" si="4"/>
+      <c r="Q8" s="11">
+        <f t="shared" si="6"/>
         <v>73.412499999999994</v>
       </c>
-      <c r="O8">
+      <c r="R8">
         <v>34</v>
       </c>
-      <c r="P8">
-        <f t="shared" si="5"/>
+      <c r="S8">
+        <f t="shared" si="7"/>
         <v>385.33333333333331</v>
       </c>
-      <c r="Q8" s="10">
-        <f t="shared" si="6"/>
+      <c r="T8" s="10">
+        <f t="shared" si="8"/>
         <v>0.49806302955781234</v>
       </c>
-      <c r="R8" s="13">
-        <f t="shared" si="7"/>
+      <c r="U8" s="13">
+        <f t="shared" si="9"/>
         <v>331</v>
       </c>
-      <c r="S8" s="13"/>
-      <c r="T8">
+      <c r="V8" s="13"/>
+      <c r="W8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -2146,7 +2294,7 @@
         <v>376837</v>
       </c>
       <c r="I9" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="K9">
@@ -2157,35 +2305,43 @@
         <f t="shared" si="2"/>
         <v>47.104624999999999</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9">
         <f t="shared" si="3"/>
+        <v>160.86889682552797</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>1413.1387500000001</v>
+      </c>
+      <c r="P9" s="11">
+        <f t="shared" si="5"/>
         <v>6.1046249999999986</v>
       </c>
-      <c r="N9" s="11">
-        <f t="shared" si="4"/>
+      <c r="Q9" s="11">
+        <f t="shared" si="6"/>
         <v>88.104624999999999</v>
       </c>
-      <c r="O9">
+      <c r="R9">
         <v>41</v>
       </c>
-      <c r="P9">
-        <f t="shared" si="5"/>
+      <c r="S9">
+        <f t="shared" si="7"/>
         <v>560.33333333333337</v>
       </c>
-      <c r="Q9" s="10">
-        <f t="shared" si="6"/>
+      <c r="T9" s="10">
+        <f t="shared" si="8"/>
         <v>0.50252732161172398</v>
       </c>
-      <c r="R9" s="13">
-        <f t="shared" si="7"/>
+      <c r="U9" s="13">
+        <f t="shared" si="9"/>
         <v>170</v>
       </c>
-      <c r="S9" s="13"/>
-      <c r="T9">
+      <c r="V9" s="13"/>
+      <c r="W9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -2212,7 +2368,7 @@
         <v>285726</v>
       </c>
       <c r="I10" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="K10">
@@ -2223,35 +2379,43 @@
         <f t="shared" si="2"/>
         <v>47.621000000000002</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10">
         <f t="shared" si="3"/>
+        <v>58.972811156154776</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="4"/>
+        <v>1428.63</v>
+      </c>
+      <c r="P10" s="11">
+        <f t="shared" si="5"/>
         <v>5.6210000000000022</v>
       </c>
-      <c r="N10" s="11">
-        <f t="shared" si="4"/>
+      <c r="Q10" s="11">
+        <f t="shared" si="6"/>
         <v>89.621000000000009</v>
       </c>
-      <c r="O10">
+      <c r="R10">
         <v>42</v>
       </c>
-      <c r="P10">
-        <f t="shared" si="5"/>
+      <c r="S10">
+        <f t="shared" si="7"/>
         <v>588</v>
       </c>
-      <c r="Q10" s="10">
-        <f t="shared" si="6"/>
+      <c r="T10" s="10">
+        <f t="shared" si="8"/>
         <v>0.50920206014078406</v>
       </c>
-      <c r="R10" s="13">
-        <f t="shared" si="7"/>
+      <c r="U10" s="13">
+        <f t="shared" si="9"/>
         <v>57</v>
       </c>
-      <c r="S10" s="13"/>
-      <c r="T10">
+      <c r="V10" s="13"/>
+      <c r="W10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -2278,7 +2442,7 @@
         <v>185025</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K11">
@@ -2289,35 +2453,43 @@
         <f t="shared" si="2"/>
         <v>46.256250000000001</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11">
         <f t="shared" si="3"/>
+        <v>353.39432402051096</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="4"/>
+        <v>1387.6875</v>
+      </c>
+      <c r="P11" s="11">
+        <f t="shared" si="5"/>
         <v>6.2562500000000014</v>
       </c>
-      <c r="N11" s="11">
-        <f t="shared" si="4"/>
+      <c r="Q11" s="11">
+        <f t="shared" si="6"/>
         <v>86.256249999999994</v>
       </c>
-      <c r="O11">
+      <c r="R11">
         <v>40</v>
       </c>
-      <c r="P11">
-        <f t="shared" si="5"/>
+      <c r="S11">
+        <f t="shared" si="7"/>
         <v>533.33333333333337</v>
       </c>
-      <c r="Q11" s="10">
-        <f t="shared" si="6"/>
+      <c r="T11" s="10">
+        <f t="shared" si="8"/>
         <v>0.4992624946376984</v>
       </c>
-      <c r="R11" s="13">
-        <f t="shared" si="7"/>
+      <c r="U11" s="13">
+        <f t="shared" si="9"/>
         <v>389</v>
       </c>
-      <c r="S11" s="13"/>
-      <c r="T11">
+      <c r="V11" s="13"/>
+      <c r="W11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -2344,7 +2516,7 @@
         <v>1522034</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>34</v>
       </c>
       <c r="K12">
@@ -2355,35 +2527,43 @@
         <f t="shared" si="2"/>
         <v>44.765705882352947</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12">
         <f t="shared" si="3"/>
+        <v>55.771936811253816</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="4"/>
+        <v>1342.9711764705885</v>
+      </c>
+      <c r="P12" s="11">
+        <f t="shared" si="5"/>
         <v>5.7657058823529468</v>
       </c>
-      <c r="N12" s="11">
-        <f t="shared" si="4"/>
+      <c r="Q12" s="11">
+        <f t="shared" si="6"/>
         <v>83.765705882352947</v>
       </c>
-      <c r="O12">
+      <c r="R12">
         <v>39</v>
       </c>
-      <c r="P12">
-        <f t="shared" si="5"/>
+      <c r="S12">
+        <f t="shared" si="7"/>
         <v>507</v>
       </c>
-      <c r="Q12" s="10">
-        <f t="shared" si="6"/>
+      <c r="T12" s="10">
+        <f t="shared" si="8"/>
         <v>0.50298906394038745</v>
       </c>
-      <c r="R12" s="13">
-        <f t="shared" si="7"/>
+      <c r="U12" s="13">
+        <f t="shared" si="9"/>
         <v>54</v>
       </c>
-      <c r="S12" s="13"/>
-      <c r="T12">
+      <c r="V12" s="13"/>
+      <c r="W12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -2410,7 +2590,7 @@
         <v>628862</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="K13">
@@ -2421,35 +2601,43 @@
         <f t="shared" si="2"/>
         <v>44.91871428571428</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13">
         <f t="shared" si="3"/>
+        <v>153.85204533581611</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="4"/>
+        <v>1347.5614285714285</v>
+      </c>
+      <c r="P13" s="11">
+        <f t="shared" si="5"/>
         <v>5.9187142857142803</v>
       </c>
-      <c r="N13" s="11">
-        <f t="shared" si="4"/>
+      <c r="Q13" s="11">
+        <f t="shared" si="6"/>
         <v>83.918714285714287</v>
       </c>
-      <c r="O13">
+      <c r="R13">
         <v>39</v>
       </c>
-      <c r="P13">
-        <f t="shared" si="5"/>
+      <c r="S13">
+        <f t="shared" si="7"/>
         <v>507</v>
       </c>
-      <c r="Q13" s="10">
-        <f t="shared" si="6"/>
+      <c r="T13" s="10">
+        <f t="shared" si="8"/>
         <v>0.50127571228271961</v>
       </c>
-      <c r="R13" s="13">
-        <f t="shared" si="7"/>
+      <c r="U13" s="13">
+        <f t="shared" si="9"/>
         <v>162</v>
       </c>
-      <c r="S13" s="13"/>
-      <c r="T13">
+      <c r="V13" s="13"/>
+      <c r="W13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -2476,7 +2664,7 @@
         <v>97331</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="K14">
@@ -2487,35 +2675,43 @@
         <f t="shared" si="2"/>
         <v>48.665500000000002</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14">
         <f t="shared" si="3"/>
+        <v>165.87287237809002</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="4"/>
+        <v>1459.9650000000001</v>
+      </c>
+      <c r="P14" s="11">
+        <f t="shared" si="5"/>
         <v>6.6655000000000015</v>
       </c>
-      <c r="N14" s="11">
-        <f t="shared" si="4"/>
+      <c r="Q14" s="11">
+        <f t="shared" si="6"/>
         <v>90.665500000000009</v>
       </c>
-      <c r="O14">
+      <c r="R14">
         <v>42</v>
       </c>
-      <c r="P14">
-        <f t="shared" si="5"/>
+      <c r="S14">
+        <f t="shared" si="7"/>
         <v>588</v>
       </c>
-      <c r="Q14" s="10">
-        <f t="shared" si="6"/>
+      <c r="T14" s="10">
+        <f t="shared" si="8"/>
         <v>0.49827313612239221</v>
       </c>
-      <c r="R14" s="13">
-        <f t="shared" si="7"/>
+      <c r="U14" s="13">
+        <f t="shared" si="9"/>
         <v>175</v>
       </c>
-      <c r="S14" s="13"/>
-      <c r="T14">
+      <c r="V14" s="13"/>
+      <c r="W14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
@@ -2542,7 +2738,7 @@
         <v>90906</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="K15">
@@ -2553,35 +2749,43 @@
         <f t="shared" si="2"/>
         <v>45.453000000000003</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15">
         <f t="shared" si="3"/>
+        <v>347.51343821285144</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>1363.5900000000001</v>
+      </c>
+      <c r="P15" s="11">
+        <f t="shared" si="5"/>
         <v>6.453000000000003</v>
       </c>
-      <c r="N15" s="11">
-        <f t="shared" si="4"/>
+      <c r="Q15" s="11">
+        <f t="shared" si="6"/>
         <v>84.453000000000003</v>
       </c>
-      <c r="O15">
+      <c r="R15">
         <v>39</v>
       </c>
-      <c r="P15">
-        <f t="shared" si="5"/>
+      <c r="S15">
+        <f t="shared" si="7"/>
         <v>507</v>
       </c>
-      <c r="Q15" s="10">
-        <f t="shared" si="6"/>
+      <c r="T15" s="10">
+        <f t="shared" si="8"/>
         <v>0.49538337399941479</v>
       </c>
-      <c r="R15" s="13">
-        <f t="shared" si="7"/>
+      <c r="U15" s="13">
+        <f t="shared" si="9"/>
         <v>382</v>
       </c>
-      <c r="S15" s="13"/>
-      <c r="T15">
+      <c r="V15" s="13"/>
+      <c r="W15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -2608,7 +2812,7 @@
         <v>139364</v>
       </c>
       <c r="I16" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="K16">
@@ -2619,35 +2823,43 @@
         <f t="shared" si="2"/>
         <v>46.454666666666668</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16">
         <f t="shared" si="3"/>
+        <v>354.8466587373012</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="4"/>
+        <v>1393.64</v>
+      </c>
+      <c r="P16" s="11">
+        <f t="shared" si="5"/>
         <v>6.4546666666666681</v>
       </c>
-      <c r="N16" s="11">
-        <f t="shared" si="4"/>
+      <c r="Q16" s="11">
+        <f t="shared" si="6"/>
         <v>86.454666666666668</v>
       </c>
-      <c r="O16">
+      <c r="R16">
         <v>40</v>
       </c>
-      <c r="P16">
-        <f t="shared" si="5"/>
+      <c r="S16">
+        <f t="shared" si="7"/>
         <v>533.33333333333337</v>
       </c>
-      <c r="Q16" s="10">
-        <f t="shared" si="6"/>
+      <c r="T16" s="10">
+        <f t="shared" si="8"/>
         <v>0.49713005010443945</v>
       </c>
-      <c r="R16" s="13">
-        <f t="shared" si="7"/>
+      <c r="U16" s="13">
+        <f t="shared" si="9"/>
         <v>390</v>
       </c>
-      <c r="S16" s="13"/>
-      <c r="T16">
+      <c r="V16" s="13"/>
+      <c r="W16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:22" x14ac:dyDescent="0.3">
       <c r="F17" s="4">
         <f>SUM(F2:F16)</f>
         <v>3476608</v>
@@ -2659,18 +2871,44 @@
         <f>SUM(I2:I16)</f>
         <v>106</v>
       </c>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
+      <c r="L17" s="9">
+        <f>SUMPRODUCT(L2:L16,I2:I16)</f>
+        <v>4732</v>
+      </c>
+      <c r="N17">
+        <f>30*L17</f>
+        <v>141960</v>
+      </c>
+      <c r="T17" s="10"/>
+      <c r="U17" s="13">
+        <f>ROUND(G18*L17*1.2,0)</f>
+        <v>28392</v>
+      </c>
+      <c r="V17" s="13"/>
     </row>
-    <row r="18" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:22" x14ac:dyDescent="0.3">
+      <c r="G18" s="5">
+        <v>5</v>
+      </c>
       <c r="H18">
         <f>H17/F17</f>
         <v>1.3610967931961269</v>
       </c>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
+      <c r="L18">
+        <f>L17/10</f>
+        <v>473.2</v>
+      </c>
+      <c r="M18">
+        <f>L18*G18+1.645*SQRT(G18*L18)</f>
+        <v>2446.0153432161605</v>
+      </c>
+      <c r="N18">
+        <f>N17/10</f>
+        <v>14196</v>
+      </c>
+      <c r="T18" s="10"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2708,6 +2946,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId31"/>
   <drawing r:id="rId32"/>
+  <legacyDrawing r:id="rId33"/>
 </worksheet>
 </file>
 
@@ -2715,7 +2954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DC5CBF-3428-4AEB-86A5-04C107676F58}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:A17"/>
     </sheetView>
   </sheetViews>
@@ -2746,13 +2985,13 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J1" t="s">
         <v>21</v>
       </c>
       <c r="K1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L1" t="s">
         <v>27</v>
@@ -3140,7 +3379,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -3246,7 +3485,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -3635,7 +3874,7 @@
   <sheetData>
     <row r="2" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="9">
         <f t="shared" ref="B2:AG2" si="0">SUM(B3:B12)</f>
@@ -18984,7 +19223,7 @@
     </row>
     <row r="47" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47">
         <f>MAX(B36:B45)+1</f>
@@ -19428,10 +19667,10 @@
   <sheetData>
     <row r="1" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -19527,10 +19766,10 @@
         <v>15</v>
       </c>
       <c r="AI1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AJ1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AK1" t="s">
         <v>21</v>
@@ -19557,22 +19796,22 @@
         <v>21</v>
       </c>
       <c r="AS1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AT1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AU1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AV1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AW1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AX1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AY1" t="s">
         <v>27</v>
